--- a/database/data-loader/test-data/2021/RGB950 2021 Sample List.xlsx
+++ b/database/data-loader/test-data/2021/RGB950 2021 Sample List.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carolinehumphreys/Projects/Polarization-Lab/RGB950/database/data-loader/test-data/2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D886AE53-40C0-234E-B7C3-3A6CF821BF1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92628EB2-EE49-EA41-97E2-B3164694B628}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="13420" tabRatio="500" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="982" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="985" uniqueCount="424">
   <si>
     <t>RGB950 2021 Sample List</t>
   </si>
@@ -1321,6 +1321,12 @@
   </si>
   <si>
     <t>Type</t>
+  </si>
+  <si>
+    <t>Pink Silicone Sphere</t>
+  </si>
+  <si>
+    <t>SILICONE</t>
   </si>
 </sst>
 </file>
@@ -7540,10 +7546,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A2:H139"/>
+  <dimension ref="A2:H140"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D148" sqref="D148"/>
+    <sheetView tabSelected="1" topLeftCell="A122" workbookViewId="0">
+      <selection activeCell="F140" sqref="F140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7591,7 +7597,7 @@
       </c>
       <c r="H3">
         <f>SUM(D3:D176)</f>
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.2">
@@ -9899,7 +9905,27 @@
       <c r="C139" t="s">
         <v>405</v>
       </c>
+      <c r="D139">
+        <v>1</v>
+      </c>
       <c r="E139" s="5"/>
+      <c r="F139" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="140" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B140">
+        <v>138</v>
+      </c>
+      <c r="C140" t="s">
+        <v>422</v>
+      </c>
+      <c r="D140">
+        <v>1</v>
+      </c>
+      <c r="F140" t="s">
+        <v>423</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/database/data-loader/test-data/2021/RGB950 2021 Sample List.xlsx
+++ b/database/data-loader/test-data/2021/RGB950 2021 Sample List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carolinehumphreys/Projects/Polarization-Lab/RGB950/database/data-loader/test-data/2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92628EB2-EE49-EA41-97E2-B3164694B628}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07186CF4-AB5F-504E-83FA-09C46D781121}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="13420" tabRatio="500" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="985" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="987" uniqueCount="426">
   <si>
     <t>RGB950 2021 Sample List</t>
   </si>
@@ -1327,6 +1327,12 @@
   </si>
   <si>
     <t>SILICONE</t>
+  </si>
+  <si>
+    <t>pink</t>
+  </si>
+  <si>
+    <t>grey</t>
   </si>
 </sst>
 </file>
@@ -7546,10 +7552,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A2:H140"/>
+  <dimension ref="A2:H141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A122" workbookViewId="0">
-      <selection activeCell="F140" sqref="F140"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7597,7 +7603,7 @@
       </c>
       <c r="H3">
         <f>SUM(D3:D176)</f>
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.2">
@@ -9914,8 +9920,8 @@
       </c>
     </row>
     <row r="140" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B140">
-        <v>138</v>
+      <c r="B140" t="s">
+        <v>424</v>
       </c>
       <c r="C140" t="s">
         <v>422</v>
@@ -9925,6 +9931,14 @@
       </c>
       <c r="F140" t="s">
         <v>423</v>
+      </c>
+    </row>
+    <row r="141" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B141" t="s">
+        <v>425</v>
+      </c>
+      <c r="D141">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
